--- a/pred_ohlcv/54_21/2019-10-08 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-08 ZRX ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>8218.568599999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -704,7 +704,7 @@
         <v>7372.728499999998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>7215.707699999998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>13378.9946</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>16975.3754</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>16893.7102</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>18894.20737777778</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>18894.20737777778</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>17247.04397777778</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>17247.04397777778</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>18433.77187777777</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>29128.92457079248</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>29127.92457079248</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>29118.80007079248</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>45943.23327079248</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>38801.80095833736</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>38801.80095833736</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>37551.69595833736</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>30584.86015833736</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>43067.07845833736</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>43067.07845833736</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>24556.56455833736</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>24913.14565833736</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>25737.52575833736</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>25784.97375833736</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>25784.97375833736</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>26153.78165833736</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>26168.78165833736</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>26168.78165833736</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>26391.80665833736</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>87178.64423752439</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>87182.6997375244</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>87182.6997375244</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>70641.06023752439</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>71718.06023752439</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>71718.06023752439</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>71540.67013752439</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>84385.32118329905</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>78914.62798329905</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>79779.62798329905</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>78610.25362162659</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>52784.95662162659</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>52784.95662162659</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>52784.95662162659</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>54677.01582162659</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>54236.42792162659</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>52533.66912162659</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>52533.66912162659</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>52533.66912162659</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>53134.29642162659</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>53254.93272162659</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>53254.93272162659</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>52412.04522162659</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>52712.04522162659</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>52162.04522162659</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>52163.04522162659</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>51933.72402162659</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>55454.3411216266</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>55169.0671216266</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>55169.0671216266</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>55169.0671216266</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>56248.0218216266</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>56236.4974216266</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>56237.4974216266</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>55437.4974216266</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>45793.4470216266</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>45793.4470216266</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>43804.0955216266</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>48563.3175216266</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>45009.29782162661</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>45009.29782162661</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-08 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-08 ZRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>11472.8915</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>7381.5686</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8218.568599999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -626,7 +626,7 @@
         <v>7921.216299999998</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>7538.876499999998</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>7372.728499999998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>7372.728499999998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>7215.707699999998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>13378.9946</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>16975.3754</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>16893.7102</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>17615.3253</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>17615.3253</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>16443.8255</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>18894.20737777778</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>18894.20737777778</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>28015.65117777777</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>29128.92457079248</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>29127.92457079248</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>29118.80007079248</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>46170.56387079248</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>45943.23327079248</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>38801.80095833736</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>38801.80095833736</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>37551.69595833736</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>31829.40415833736</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>30584.86015833736</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>43067.07845833736</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>43067.07845833736</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>24556.56455833736</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>24913.14565833736</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>25737.52575833736</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>25784.97375833736</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>25784.97375833736</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>26153.78165833736</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>26168.78165833736</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>26168.78165833736</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>26391.80665833736</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>102842.7831375244</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>88951.0521375244</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>87178.64423752439</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>87182.6997375244</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>87182.6997375244</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>70641.06023752439</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>71718.06023752439</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>71718.06023752439</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>71540.67013752439</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>58105.80253752439</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>84385.32118329905</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>84385.32118329905</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>78914.62798329905</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>79779.62798329905</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>78610.25362162659</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>52784.95662162659</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>52784.95662162659</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>52784.95662162659</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>54236.42792162659</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>52533.66912162659</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>53254.93272162659</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>53254.93272162659</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>55110.4542216266</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>55169.0671216266</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>55169.0671216266</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>55169.0671216266</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>56248.0218216266</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>56237.4974216266</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>55437.4974216266</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>55438.4974216266</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
